--- a/Results/glass-disc_results.xlsx
+++ b/Results/glass-disc_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,22 +459,70 @@
           <t>NCC robust</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>C4.5 acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>credal-C4.5 acc</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SPN acc</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CSPN low</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CSPN high</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CSPN robust</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>51.12820512820512</v>
+        <v>50.66666666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>31.38461538461538</v>
+        <v>32.56410256410257</v>
       </c>
       <c r="D2" t="n">
-        <v>81.28205128205128</v>
+        <v>82.10256410256412</v>
       </c>
       <c r="E2" t="n">
-        <v>69.77756229828327</v>
+        <v>71.02455826605423</v>
+      </c>
+      <c r="F2" t="n">
+        <v>61.8974358974359</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60.82051282051282</v>
+      </c>
+      <c r="H2" t="n">
+        <v>57.12820512820512</v>
+      </c>
+      <c r="I2" t="n">
+        <v>57.12820512820512</v>
+      </c>
+      <c r="J2" t="n">
+        <v>57.12820512820512</v>
+      </c>
+      <c r="K2" t="n">
+        <v>57.12820512820512</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +530,34 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>50.35897435897436</v>
+        <v>49.94871794871795</v>
       </c>
       <c r="C3" t="n">
-        <v>29.43589743589744</v>
+        <v>30.46153846153846</v>
       </c>
       <c r="D3" t="n">
-        <v>82.30769230769232</v>
+        <v>82.2051282051282</v>
       </c>
       <c r="E3" t="n">
-        <v>68.98843420237316</v>
+        <v>70.21985197549131</v>
+      </c>
+      <c r="F3" t="n">
+        <v>59.28205128205128</v>
+      </c>
+      <c r="G3" t="n">
+        <v>59.17948717948718</v>
+      </c>
+      <c r="H3" t="n">
+        <v>55.69230769230769</v>
+      </c>
+      <c r="I3" t="n">
+        <v>56.92307692307692</v>
+      </c>
+      <c r="J3" t="n">
+        <v>57.53846153846154</v>
+      </c>
+      <c r="K3" t="n">
+        <v>57.42452275920018</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +565,34 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>52.05128205128206</v>
+        <v>48.05128205128206</v>
       </c>
       <c r="C4" t="n">
-        <v>33.48717948717949</v>
+        <v>30.1025641025641</v>
       </c>
       <c r="D4" t="n">
-        <v>81.38461538461539</v>
+        <v>81.12820512820512</v>
       </c>
       <c r="E4" t="n">
-        <v>69.53644874234051</v>
+        <v>67.65002635743639</v>
+      </c>
+      <c r="F4" t="n">
+        <v>53.17948717948718</v>
+      </c>
+      <c r="G4" t="n">
+        <v>57.38461538461538</v>
+      </c>
+      <c r="H4" t="n">
+        <v>58.87179487179488</v>
+      </c>
+      <c r="I4" t="n">
+        <v>58.56410256410256</v>
+      </c>
+      <c r="J4" t="n">
+        <v>59.33333333333334</v>
+      </c>
+      <c r="K4" t="n">
+        <v>59.33182677537516</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +600,34 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>49.12820512820512</v>
+        <v>51.28205128205128</v>
       </c>
       <c r="C5" t="n">
-        <v>32.82051282051282</v>
+        <v>31.58974358974359</v>
       </c>
       <c r="D5" t="n">
-        <v>82.51282051282051</v>
+        <v>80.87179487179488</v>
       </c>
       <c r="E5" t="n">
-        <v>71.05284233912361</v>
+        <v>69.44227506775074</v>
+      </c>
+      <c r="F5" t="n">
+        <v>46</v>
+      </c>
+      <c r="G5" t="n">
+        <v>52.66666666666666</v>
+      </c>
+      <c r="H5" t="n">
+        <v>54.92307692307692</v>
+      </c>
+      <c r="I5" t="n">
+        <v>56.1025641025641</v>
+      </c>
+      <c r="J5" t="n">
+        <v>57.28205128205128</v>
+      </c>
+      <c r="K5" t="n">
+        <v>57.07297492680557</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +635,34 @@
         <v>30</v>
       </c>
       <c r="B6" t="n">
-        <v>48.51282051282052</v>
+        <v>50.15384615384615</v>
       </c>
       <c r="C6" t="n">
-        <v>29.23076923076923</v>
+        <v>30.56410256410257</v>
       </c>
       <c r="D6" t="n">
-        <v>81.33333333333333</v>
+        <v>81.7948717948718</v>
       </c>
       <c r="E6" t="n">
-        <v>67.68651428689714</v>
+        <v>68.06291273582693</v>
+      </c>
+      <c r="F6" t="n">
+        <v>43.69230769230769</v>
+      </c>
+      <c r="G6" t="n">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="H6" t="n">
+        <v>54.82051282051282</v>
+      </c>
+      <c r="I6" t="n">
+        <v>55.69230769230769</v>
+      </c>
+      <c r="J6" t="n">
+        <v>58.2051282051282</v>
+      </c>
+      <c r="K6" t="n">
+        <v>57.551457788067</v>
       </c>
     </row>
   </sheetData>
